--- a/top vulnerable assets.xlsx
+++ b/top vulnerable assets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860"/>
+    <workbookView windowWidth="32180" windowHeight="14700"/>
   </bookViews>
   <sheets>
     <sheet name="查询过滤规则" sheetId="2" r:id="rId1"/>
@@ -54,7 +54,7 @@
             <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">YOYO:
@@ -64,7 +64,7 @@
           <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>包含了MariaDB</t>
@@ -78,7 +78,7 @@
             <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>YOYO:</t>
@@ -87,7 +87,7 @@
           <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -102,7 +102,7 @@
             <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>YOYO:</t>
@@ -111,7 +111,7 @@
           <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -126,7 +126,7 @@
             <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>YOYO:</t>
@@ -135,7 +135,7 @@
           <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -149,7 +149,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>YOYO:</t>
@@ -157,7 +157,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -171,7 +171,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>YOYO:</t>
@@ -179,7 +179,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -193,7 +193,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>YOYO:</t>
@@ -201,7 +201,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -216,7 +216,7 @@
             <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>YOYO:</t>
@@ -225,7 +225,7 @@
           <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -239,7 +239,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>YOYO:</t>
@@ -247,7 +247,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -261,7 +261,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>YOYO:</t>
@@ -269,7 +269,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -283,7 +283,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>YOYO:</t>
@@ -291,7 +291,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -305,7 +305,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>YOYO:</t>
@@ -313,7 +313,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -327,7 +327,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>YOYO:</t>
@@ -335,7 +335,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -349,7 +349,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>YOYO:</t>
@@ -357,7 +357,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -372,7 +372,7 @@
             <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>YOYO:</t>
@@ -381,7 +381,7 @@
           <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -395,7 +395,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">YOYO:
@@ -404,7 +404,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>无样本，或许Plugin ID 10170可以做到</t>
@@ -416,7 +416,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182">
   <si>
     <t>定义-README</t>
   </si>
@@ -469,10 +469,10 @@
     <t>Plugin ID is '39446'</t>
   </si>
   <si>
-    <t xml:space="preserve">Plugin Text Regex Match '(tomcat\d+-\d\..+)|(Apache Tomcat \d.+)' where plugin ID is '22869,20811,118237' </t>
-  </si>
-  <si>
-    <t>Plugin Text Regex Match '(bin/tomcat)|(bin\tomcat)|(tomcat\d+.exe)' where plugin ID is '25221,34252,44401,70329,110483'</t>
+    <t xml:space="preserve">Plugin Text Regex Match '(tomcat-\d+\.\d+\.)|(Apache Tomcat \d.+)' where plugin ID is '22869,20811,118237' </t>
+  </si>
+  <si>
+    <t>Plugin Text Regex Match '(bin/tomcat)|(tomcat\d+.exe)' where plugin ID is '25221,34252,44401,70329,110483'</t>
   </si>
   <si>
     <t>Severity is 'Info'  where Plugin Name Contains 'Custom Asset Discovery Tomcat'</t>
@@ -484,10 +484,10 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>Plugin Text Contains 'fastjson' where plugin ID is '22869,20811,118237'</t>
-  </si>
-  <si>
-    <t>Plugin Text Regex Match 'fastjson-\d.+jar' where plugin ID is '25221,34252,44401,70329,110483'</t>
+    <t>Plugin Text Contains 'fastjson' where plugin ID is '118237'</t>
+  </si>
+  <si>
+    <t>Plugin Text Regex Match 'fastjson-\d.+\.jar' where plugin ID is '25221,34252,44401,70329,110483'</t>
   </si>
   <si>
     <t>Severity is 'Info'  where Plugin Name Contains 'Custom Asset Discovery Fastjson'</t>
@@ -502,7 +502,7 @@
     <t>Plugin Text Contains 'nginx' where plugin ID is '22869,20811'</t>
   </si>
   <si>
-    <t>Plugin Text Regex Match '(nginx)|(\/sbin\/nginx)|(nginx.exe)' where plugin ID is '25221,34252,44401,70329,110483'</t>
+    <t>Plugin Text Regex Match '(nginx)|(/sbin/nginx)|(nginx.exe)' where plugin ID is '25221,34252,44401,70329,110483'</t>
   </si>
   <si>
     <t>Severity is 'Info'  where Plugin Name Contains 'Custom Asset Discovery Nginx'</t>
@@ -937,7 +937,7 @@
     <t>Salt minion</t>
   </si>
   <si>
-    <t>Plugin Text Regex Match '([Ss]alt [Mm]inion)|(salt-minion)|(salt\/minion)' where plugin ID is '22869,20811,118237'</t>
+    <t>Plugin Text Regex Match '([Ss]alt [Mm]inion)|(salt-minion)|(salt/minion)' where plugin ID is '22869,20811,118237'</t>
   </si>
   <si>
     <t>Plugin Text Contains 'salt-minion' where plugin ID is '25221,34252,44401,70329,110483'</t>
@@ -952,7 +952,7 @@
     <t>Plugin Text Contains 'puppet-server' where plugin ID is '22869,20811,118237'</t>
   </si>
   <si>
-    <t>Plugin Text Regex Match 'bin\/puppet master' where plugin ID is '25221,34252,44401,70329,110483'</t>
+    <t>Plugin Text Regex Match 'bin/puppet master' where plugin ID is '25221,34252,44401,70329,110483'</t>
   </si>
   <si>
     <t>Puppet agent</t>
@@ -961,7 +961,7 @@
     <t>Plugin Text Regex Match '([Pp]uppet.+\[version)|(puppet-\d)' where plugin ID is '22869,20811,118237'</t>
   </si>
   <si>
-    <t>Plugin Text Regex Match '(bin\/puppet agent)|([Pp]uppet [Aa]gent)' where plugin ID is '25221,34252,44401,70329,110483'</t>
+    <t>Plugin Text Regex Match '(bin/puppet agent)|([Pp]uppet [Aa]gent)' where plugin ID is '25221,34252,44401,70329,110483'</t>
   </si>
 </sst>
 </file>
@@ -969,16 +969,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -986,14 +986,14 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1001,7 +1001,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1014,43 +1014,90 @@
     <font>
       <sz val="13"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1058,21 +1105,22 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1080,37 +1128,28 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1118,94 +1157,18 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -1222,187 +1185,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1496,6 +1459,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1507,6 +1505,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1534,210 +1556,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1760,111 +1723,111 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1905,8 +1868,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12576810" y="2449195"/>
-          <a:ext cx="8068945" cy="4659630"/>
+          <a:off x="12576810" y="2480310"/>
+          <a:ext cx="8068945" cy="4561205"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2174,7 +2137,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:G58"/>
   <sheetViews>
@@ -2183,18 +2146,18 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A54" sqref="A54"/>
+      <selection pane="bottomRight" activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="19.1666666666667" customWidth="1"/>
     <col min="2" max="5" width="33.3333333333333" customWidth="1"/>
     <col min="7" max="7" width="15.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15"/>
-    <row r="2" ht="20.25" spans="1:4">
+    <row r="1" ht="16.35"/>
+    <row r="2" ht="20.4" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2202,7 +2165,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" ht="20.25" spans="1:4">
+    <row r="3" ht="20.4" spans="1:4">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -2210,7 +2173,7 @@
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" ht="20.25" spans="1:4">
+    <row r="4" ht="20.4" spans="1:4">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -2218,7 +2181,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" ht="20.25" spans="1:4">
+    <row r="5" ht="20.4" spans="1:4">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -2226,7 +2189,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" ht="21" spans="1:4">
+    <row r="6" ht="21.15" spans="1:4">
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
@@ -2234,14 +2197,14 @@
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
     </row>
-    <row r="7" customFormat="1" ht="20.25" spans="1:4">
+    <row r="7" customFormat="1" ht="20.4" spans="1:4">
       <c r="A7" s="13"/>
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" ht="15"/>
-    <row r="9" ht="18.75" spans="1:7">
+    <row r="8" ht="16.35"/>
+    <row r="9" ht="17.6" spans="1:7">
       <c r="A9" s="14"/>
       <c r="B9" s="15" t="s">
         <v>5</v>
@@ -2252,840 +2215,840 @@
       <c r="D9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="29" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" ht="99.75" spans="1:5">
-      <c r="A10" s="18" t="s">
+    <row r="10" ht="94" spans="1:5">
+      <c r="A10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="30" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" ht="57" spans="1:5">
-      <c r="A11" s="18" t="s">
+    <row r="11" ht="63" spans="1:5">
+      <c r="A11" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" ht="57" spans="1:5">
-      <c r="A12" s="18" t="s">
+    <row r="12" ht="47" spans="1:5">
+      <c r="A12" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="19" t="s">
+      <c r="B12" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="30" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" ht="57" spans="1:5">
-      <c r="A13" s="18" t="s">
+    <row r="13" ht="63" spans="1:5">
+      <c r="A13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" ht="71.25" spans="1:5">
-      <c r="A14" s="18" t="s">
+    <row r="14" ht="63" spans="1:5">
+      <c r="A14" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" ht="42.75" spans="1:5">
-      <c r="A15" s="18" t="s">
+    <row r="15" ht="47" spans="1:5">
+      <c r="A15" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" ht="57" spans="1:5">
-      <c r="A16" s="18" t="s">
+      <c r="E15" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" ht="47" spans="1:5">
+      <c r="A16" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="30" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="42.75" spans="1:5">
-      <c r="A17" s="21" t="s">
+    <row r="17" customFormat="1" ht="47" spans="1:5">
+      <c r="A17" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="30" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" ht="42.75" spans="1:5">
-      <c r="A18" s="22" t="s">
+    <row r="18" ht="47" spans="1:5">
+      <c r="A18" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" ht="28.5" spans="1:5">
-      <c r="A19" s="22" t="s">
+      <c r="E18" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" ht="16.8" spans="1:5">
+      <c r="A19" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" ht="57" spans="1:5">
-      <c r="A20" s="22" t="s">
+      <c r="C19" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" ht="47" spans="1:5">
+      <c r="A20" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" ht="57" spans="1:5">
-      <c r="A21" s="22" t="s">
+      <c r="E20" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" ht="47" spans="1:5">
+      <c r="A21" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" ht="28.5" spans="1:5">
-      <c r="A22" s="22" t="s">
+      <c r="E21" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" ht="16.8" spans="1:5">
+      <c r="A22" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" ht="28.5" spans="1:5">
-      <c r="A23" s="22" t="s">
+      <c r="C22" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" ht="32" spans="1:5">
+      <c r="A23" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" ht="42.75" spans="1:5">
-      <c r="A24" s="22" t="s">
+      <c r="C23" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" ht="47" spans="1:5">
+      <c r="A24" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" ht="71.25" spans="1:5">
-      <c r="A25" s="22" t="s">
+      <c r="C24" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" ht="63" spans="1:5">
+      <c r="A25" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="E25" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" ht="15" spans="1:5">
-      <c r="A26" s="22" t="s">
+      <c r="E25" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" ht="18" spans="1:5">
+      <c r="A26" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E26" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" ht="42.75" spans="1:5">
-      <c r="A27" s="22" t="s">
+      <c r="E26" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" ht="47" spans="1:5">
+      <c r="A27" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" ht="15" spans="1:5">
-      <c r="A28" s="22" t="s">
+      <c r="E27" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" ht="18" spans="1:5">
+      <c r="A28" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E28" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" ht="71.25" spans="1:5">
-      <c r="A29" s="21" t="s">
+      <c r="E28" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" ht="78" spans="1:5">
+      <c r="A29" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E29" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" ht="57" spans="1:5">
-      <c r="A30" s="21" t="s">
+      <c r="E29" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" ht="47" spans="1:5">
+      <c r="A30" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="E30" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" ht="42.75" spans="1:5">
-      <c r="A31" s="21" t="s">
+      <c r="E30" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" ht="47" spans="1:5">
+      <c r="A31" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" ht="57" spans="1:5">
-      <c r="A32" s="21" t="s">
+      <c r="C31" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" ht="47" spans="1:5">
+      <c r="A32" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E32" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" ht="57" spans="1:5">
-      <c r="A33" s="21" t="s">
+      <c r="E32" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" ht="63" spans="1:5">
+      <c r="A33" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="E33" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" ht="57" spans="1:5">
-      <c r="A34" s="21" t="s">
+      <c r="E33" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" ht="63" spans="1:5">
+      <c r="A34" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="E34" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" ht="42.75" spans="1:5">
-      <c r="A35" s="21" t="s">
+      <c r="E34" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" ht="47" spans="1:5">
+      <c r="A35" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="E35" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" ht="57" spans="1:5">
-      <c r="A36" s="21" t="s">
+      <c r="E35" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" ht="47" spans="1:5">
+      <c r="A36" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="C36" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="19" t="s">
+      <c r="C36" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="E36" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" ht="42.75" spans="1:5">
-      <c r="A37" s="21" t="s">
+      <c r="E36" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" ht="47" spans="1:5">
+      <c r="A37" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="E37" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" ht="42.75" spans="1:5">
-      <c r="A38" s="21" t="s">
+      <c r="E37" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" ht="47" spans="1:5">
+      <c r="A38" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="E38" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" ht="42.75" spans="1:5">
-      <c r="A39" s="21" t="s">
+      <c r="E38" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" ht="47" spans="1:5">
+      <c r="A39" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="E39" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" ht="42.75" spans="1:5">
-      <c r="A40" s="21" t="s">
+      <c r="E39" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" ht="47" spans="1:5">
+      <c r="A40" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="E40" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" ht="42.75" spans="1:5">
-      <c r="A41" s="21" t="s">
+      <c r="E40" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" ht="47" spans="1:5">
+      <c r="A41" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="B41" s="19" t="s">
+      <c r="B41" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="E41" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" ht="57" spans="1:5">
-      <c r="A42" s="21" t="s">
+      <c r="E41" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" ht="47" spans="1:5">
+      <c r="A42" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C42" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="D42" s="19" t="s">
+      <c r="D42" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="E42" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" ht="57" spans="1:5">
-      <c r="A43" s="21" t="s">
+      <c r="E42" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" ht="47" spans="1:5">
+      <c r="A43" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="D43" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="E43" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="21" t="s">
+      <c r="E43" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" ht="18" spans="1:5">
+      <c r="A44" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="B44" s="19" t="s">
+      <c r="B44" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="C44" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D44" s="19" t="s">
+      <c r="C44" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E44" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" ht="43.5" spans="1:5">
-      <c r="A45" s="21" t="s">
+      <c r="E44" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" ht="47.75" spans="1:5">
+      <c r="A45" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="B45" s="19" t="s">
+      <c r="B45" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C45" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="D45" s="19" t="s">
+      <c r="D45" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="E45" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46" ht="42.75" spans="1:5">
-      <c r="A46" s="23" t="s">
+      <c r="E45" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" ht="47" spans="1:5">
+      <c r="A46" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="B46" s="19" t="s">
+      <c r="B46" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="C46" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46" s="19" t="s">
+      <c r="C46" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="E46" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" ht="57" spans="1:5">
-      <c r="A47" s="23" t="s">
+      <c r="E46" s="31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" ht="47" spans="1:5">
+      <c r="A47" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="C47" s="26" t="s">
+      <c r="C47" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="D47" s="25" t="s">
+      <c r="D47" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="E47" s="27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="48" ht="57" spans="1:5">
-      <c r="A48" s="21" t="s">
+      <c r="E47" s="32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" ht="63" spans="1:5">
+      <c r="A48" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="B48" s="28" t="s">
+      <c r="B48" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="C48" s="28" t="s">
+      <c r="C48" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="D48" s="28" t="s">
+      <c r="D48" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="E48" s="27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" ht="57" spans="1:5">
-      <c r="A49" s="21" t="s">
+      <c r="E48" s="32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" ht="47" spans="1:5">
+      <c r="A49" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="B49" s="28" t="s">
+      <c r="B49" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="28" t="s">
+      <c r="C49" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="D49" s="28" t="s">
+      <c r="D49" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="E49" s="27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" ht="57" spans="1:5">
-      <c r="A50" s="21" t="s">
+      <c r="E49" s="32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" ht="47" spans="1:5">
+      <c r="A50" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="B50" s="28" t="s">
+      <c r="B50" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C50" s="28" t="s">
+      <c r="C50" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="D50" s="28" t="s">
+      <c r="D50" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="E50" s="27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="51" ht="42.75" spans="1:5">
-      <c r="A51" s="21" t="s">
+      <c r="E50" s="32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" ht="47" spans="1:5">
+      <c r="A51" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="B51" s="28" t="s">
+      <c r="B51" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C51" s="28" t="s">
+      <c r="C51" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D51" s="28" t="s">
+      <c r="D51" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="E51" s="27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="52" ht="57" spans="1:5">
-      <c r="A52" s="21" t="s">
+      <c r="E51" s="32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" ht="63" spans="1:5">
+      <c r="A52" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="B52" s="19" t="s">
+      <c r="B52" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="C52" s="28" t="s">
+      <c r="C52" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="D52" s="28" t="s">
+      <c r="D52" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="E52" s="27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="53" ht="85.5" spans="1:5">
-      <c r="A53" s="21" t="s">
+      <c r="E52" s="32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" ht="63" spans="1:5">
+      <c r="A53" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="B53" s="28" t="s">
+      <c r="B53" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C53" s="28" t="s">
+      <c r="C53" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="D53" s="28" t="s">
+      <c r="D53" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="E53" s="27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="54" ht="42.75" spans="1:5">
-      <c r="A54" s="28" t="s">
+      <c r="E53" s="32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" ht="32" spans="1:5">
+      <c r="A54" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="B54" s="28" t="s">
+      <c r="B54" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C54" s="28" t="s">
+      <c r="C54" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="D54" s="28" t="s">
+      <c r="D54" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="E54" s="27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="55" ht="42.75" spans="1:5">
-      <c r="A55" s="29" t="s">
+      <c r="E54" s="32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" ht="47" spans="1:5">
+      <c r="A55" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="B55" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C55" s="30" t="s">
+      <c r="B55" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="D55" s="30" t="s">
+      <c r="D55" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="E55" s="27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="56" ht="71.25" spans="1:5">
-      <c r="A56" s="29" t="s">
+      <c r="E55" s="32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" ht="63" spans="1:5">
+      <c r="A56" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="B56" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C56" s="30" t="s">
+      <c r="B56" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="D56" s="30" t="s">
+      <c r="D56" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="E56" s="27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="57" ht="57" spans="1:5">
-      <c r="A57" s="29" t="s">
+      <c r="E56" s="32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" ht="47" spans="1:5">
+      <c r="A57" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="B57" s="30" t="s">
+      <c r="B57" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="C57" s="30" t="s">
+      <c r="C57" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="D57" s="30" t="s">
+      <c r="D57" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="E57" s="27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="58" ht="57.75" spans="1:5">
-      <c r="A58" s="31" t="s">
+      <c r="E57" s="32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" ht="63.75" spans="1:5">
+      <c r="A58" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="B58" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="C58" s="32" t="s">
+      <c r="B58" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="D58" s="32" t="s">
+      <c r="D58" s="27" t="s">
         <v>181</v>
       </c>
       <c r="E58" s="33" t="s">
@@ -3093,7 +3056,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <drawing r:id="rId2"/>
